--- a/resultados/resultados_221202.xlsx
+++ b/resultados/resultados_221202.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ufranca/Documents/Dropbox/other_projects/FIA-Ajepi/Mundial2022/resultados/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{95EFF97D-FC27-D74F-821E-E742F413D755}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{066142F5-0142-BF48-80BC-20AE802440CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2300" yWindow="500" windowWidth="26480" windowHeight="16640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -529,7 +529,7 @@
   <dimension ref="A1:H348"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A216" workbookViewId="0">
-      <selection activeCell="B224" sqref="B224:B239"/>
+      <selection activeCell="A223" sqref="A223:G239"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -6063,11 +6063,17 @@
       </c>
       <c r="D223">
         <f>D206+E223</f>
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E223">
         <f>3*F223+G223</f>
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F223">
+        <v>0</v>
+      </c>
+      <c r="G223">
+        <v>1</v>
       </c>
     </row>
     <row r="224" spans="1:7" x14ac:dyDescent="0.2">
@@ -6088,8 +6094,14 @@
         <f t="shared" ref="E224:E239" si="25">3*F224+G224</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="225" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F224">
+        <v>0</v>
+      </c>
+      <c r="G224">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="225" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
         <v>22</v>
       </c>
@@ -6101,14 +6113,20 @@
       </c>
       <c r="D225">
         <f t="shared" si="24"/>
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E225">
         <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="226" spans="1:5" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="F225">
+        <v>0</v>
+      </c>
+      <c r="G225">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="226" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
         <v>23</v>
       </c>
@@ -6120,14 +6138,20 @@
       </c>
       <c r="D226">
         <f t="shared" si="24"/>
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E226">
         <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="227" spans="1:5" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="F226">
+        <v>0</v>
+      </c>
+      <c r="G226">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="227" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
         <v>6</v>
       </c>
@@ -6139,14 +6163,20 @@
       </c>
       <c r="D227">
         <f t="shared" si="24"/>
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E227">
         <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="228" spans="1:5" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="F227">
+        <v>0</v>
+      </c>
+      <c r="G227">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="228" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
         <v>20</v>
       </c>
@@ -6158,14 +6188,20 @@
       </c>
       <c r="D228">
         <f t="shared" si="24"/>
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E228">
         <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="229" spans="1:5" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+      <c r="F228">
+        <v>0</v>
+      </c>
+      <c r="G228">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="229" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
         <v>21</v>
       </c>
@@ -6183,8 +6219,14 @@
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="230" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F229">
+        <v>0</v>
+      </c>
+      <c r="G229">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="230" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
         <v>7</v>
       </c>
@@ -6196,14 +6238,20 @@
       </c>
       <c r="D230">
         <f t="shared" si="24"/>
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E230">
         <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="231" spans="1:5" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+      <c r="F230">
+        <v>0</v>
+      </c>
+      <c r="G230">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="231" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
         <v>8</v>
       </c>
@@ -6221,8 +6269,14 @@
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="232" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F231">
+        <v>0</v>
+      </c>
+      <c r="G231">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="232" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
         <v>9</v>
       </c>
@@ -6234,14 +6288,20 @@
       </c>
       <c r="D232">
         <f t="shared" si="24"/>
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E232">
         <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="233" spans="1:5" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="F232">
+        <v>0</v>
+      </c>
+      <c r="G232">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="233" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
         <v>18</v>
       </c>
@@ -6259,8 +6319,14 @@
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="234" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F233">
+        <v>0</v>
+      </c>
+      <c r="G233">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="234" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
         <v>10</v>
       </c>
@@ -6272,14 +6338,20 @@
       </c>
       <c r="D234">
         <f t="shared" si="24"/>
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E234">
         <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="235" spans="1:5" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="F234">
+        <v>0</v>
+      </c>
+      <c r="G234">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="235" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
         <v>11</v>
       </c>
@@ -6291,14 +6363,20 @@
       </c>
       <c r="D235">
         <f t="shared" si="24"/>
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E235">
         <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="236" spans="1:5" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="F235">
+        <v>0</v>
+      </c>
+      <c r="G235">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="236" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
         <v>12</v>
       </c>
@@ -6310,14 +6388,20 @@
       </c>
       <c r="D236">
         <f t="shared" si="24"/>
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E236">
         <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="237" spans="1:5" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="F236">
+        <v>0</v>
+      </c>
+      <c r="G236">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="237" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
         <v>13</v>
       </c>
@@ -6329,14 +6413,20 @@
       </c>
       <c r="D237">
         <f t="shared" si="24"/>
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E237">
         <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="238" spans="1:5" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+      <c r="F237">
+        <v>0</v>
+      </c>
+      <c r="G237">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="238" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
         <v>14</v>
       </c>
@@ -6348,14 +6438,20 @@
       </c>
       <c r="D238">
         <f t="shared" si="24"/>
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E238">
         <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="239" spans="1:5" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="F238">
+        <v>0</v>
+      </c>
+      <c r="G238">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="239" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
         <v>15</v>
       </c>
@@ -6367,11 +6463,17 @@
       </c>
       <c r="D239">
         <f t="shared" si="24"/>
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E239">
         <f t="shared" si="25"/>
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F239">
+        <v>0</v>
+      </c>
+      <c r="G239">
+        <v>1</v>
       </c>
     </row>
     <row r="304" spans="1:3" x14ac:dyDescent="0.2">
